--- a/biology/Zoologie/Entephria_cyanata/Entephria_cyanata.xlsx
+++ b/biology/Zoologie/Entephria_cyanata/Entephria_cyanata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Entephria cyanata, l'Entéphrie de l'Arabette, est une espèce de lépidoptères de la famille des Geometridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon a une envergure de 29 à 32 mm.
 Les adultes s'envolent entre juin et août, selon les régions en une génération.
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce géométridé vit en Europe, depuis les Pays-Bas au nord, à l'est jusqu'en Pologne et en Biélorussie, au sud jusqu'aux Balkans et la Grèce, à l'ouest jusqu'à l'Italie et l'Espagne. On le trouve également au Proche-Orient et dans le nord de l'Afrique.En France, il réside dans les Alpes, les Pyrénées et en Corse (sous-espèce petronensis) à une altitude supérieure à 1 100 m. Sa chenille se nourrit de diverses espèces d'Arabis.
 </t>
@@ -574,9 +590,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (27 janvier 2019)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (27 janvier 2019) :
 Entephria cyanata acyana (Prout, 1938)
 Entephria cyanata bubaceki (Reisser, 1926)
 Entephria cyanata cyanata (Hübner, 1809)
